--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="376">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1056,282 +1056,9 @@
     <t>Minimum sum of two numbers formed from digits of an array</t>
   </si>
   <si>
-    <t>Graph</t>
-  </si>
-  <si>
-    <t>Create a Graph, print it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement BFS algorithm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement DFS Algo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect Cycle in Directed Graph using BFS/DFS Algo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
-  </si>
-  <si>
-    <t>Search in a Maze</t>
-  </si>
-  <si>
-    <t>Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t>flood fill algo</t>
-  </si>
-  <si>
-    <t>Clone a graph</t>
-  </si>
-  <si>
-    <t>Making wired Connections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">word Ladder </t>
-  </si>
-  <si>
-    <t>Dijkstra algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Topological Sort </t>
-  </si>
-  <si>
-    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t>Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t>Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t>Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t>Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t>Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t>Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t>Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t>Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t>Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t>Find bridge in a graph</t>
-  </si>
-  <si>
-    <t>Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t>Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t>Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t>Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Journey to the Moon</t>
-  </si>
-  <si>
-    <t>Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t>Oliver and the Game</t>
-  </si>
-  <si>
-    <t>Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t>Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t>M-ColouringProblem</t>
-  </si>
-  <si>
-    <t>Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t>Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t>Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t>Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Two Clique Problem</t>
-  </si>
-  <si>
-    <t>Trie</t>
-  </si>
-  <si>
-    <t>Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t>Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t>Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t>Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t>Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
     <t>Dynamic Programming</t>
   </si>
   <si>
-    <t>Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t>Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t>Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t>Edit Distance</t>
-  </si>
-  <si>
-    <t>Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t>Gold Mine Problem</t>
-  </si>
-  <si>
-    <t>Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t>Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t>Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t>Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t>LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t>Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t>Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t>Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t>Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t>Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t>Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t>Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t>Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t>Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t>Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t>Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t>Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t>Longest Common Substring</t>
-  </si>
-  <si>
-    <t>Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t>Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t>Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t>Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t>Word Break Problem</t>
-  </si>
-  <si>
-    <t>Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t>Partition problem</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
     <t>Longest Palindromic Substring</t>
   </si>
   <si>
@@ -1423,6 +1150,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>8*</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1852,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1872,7 +1602,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>464</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -1888,7 +1618,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="4" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
@@ -1914,19 +1644,25 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1934,10 +1670,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1945,10 +1681,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1956,10 +1692,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1967,10 +1703,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -1978,10 +1714,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -1989,7 +1725,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -2000,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
@@ -2011,10 +1747,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2022,10 +1758,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2033,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -2044,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>4</v>
@@ -2055,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -2066,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -2077,7 +1813,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -2088,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
@@ -2099,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -2110,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
@@ -2121,7 +1857,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -2132,7 +1868,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -2143,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
@@ -2154,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
@@ -2165,7 +1901,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -2176,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -2187,10 +1923,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2198,10 +1934,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>465</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
@@ -2209,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -2220,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -2231,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -2242,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -2253,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -2264,32 +2000,32 @@
         <v>5</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
-      <c r="A41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="B41" s="7"/>
       <c r="C41" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
+      <c r="A42" s="5"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="21">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
@@ -2299,7 +2035,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -2310,7 +2046,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
@@ -2321,7 +2057,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>4</v>
@@ -2332,7 +2068,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
@@ -2343,7 +2079,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>4</v>
@@ -2354,7 +2090,7 @@
         <v>42</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -2365,7 +2101,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>4</v>
@@ -2376,7 +2112,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>4</v>
@@ -2387,34 +2123,34 @@
         <v>42</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
-      <c r="A53" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="54" spans="1:3" ht="21">
+      <c r="A54" s="5"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" ht="21">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>4</v>
@@ -2425,7 +2161,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>4</v>
@@ -2435,8 +2171,8 @@
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>56</v>
+      <c r="B58" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>4</v>
@@ -2446,8 +2182,8 @@
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>57</v>
+      <c r="B59" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -2458,7 +2194,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
@@ -2469,7 +2205,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>4</v>
@@ -2480,7 +2216,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>4</v>
@@ -2491,7 +2227,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -2502,7 +2238,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>4</v>
@@ -2513,7 +2249,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>4</v>
@@ -2524,7 +2260,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
@@ -2535,7 +2271,7 @@
         <v>53</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
@@ -2546,7 +2282,7 @@
         <v>53</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
@@ -2557,7 +2293,7 @@
         <v>53</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>4</v>
@@ -2568,7 +2304,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>4</v>
@@ -2579,7 +2315,7 @@
         <v>53</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
@@ -2590,7 +2326,7 @@
         <v>53</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>4</v>
@@ -2601,7 +2337,7 @@
         <v>53</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>4</v>
@@ -2612,7 +2348,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>4</v>
@@ -2623,7 +2359,7 @@
         <v>53</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>4</v>
@@ -2634,7 +2370,7 @@
         <v>53</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>4</v>
@@ -2645,7 +2381,7 @@
         <v>53</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -2656,7 +2392,7 @@
         <v>53</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>4</v>
@@ -2667,7 +2403,7 @@
         <v>53</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -2678,7 +2414,7 @@
         <v>53</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>4</v>
@@ -2689,7 +2425,7 @@
         <v>53</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>4</v>
@@ -2700,7 +2436,7 @@
         <v>53</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>4</v>
@@ -2711,7 +2447,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -2722,7 +2458,7 @@
         <v>53</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>4</v>
@@ -2733,7 +2469,7 @@
         <v>53</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>4</v>
@@ -2744,7 +2480,7 @@
         <v>53</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>4</v>
@@ -2755,7 +2491,7 @@
         <v>53</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -2766,7 +2502,7 @@
         <v>53</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>4</v>
@@ -2777,7 +2513,7 @@
         <v>53</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>4</v>
@@ -2788,7 +2524,7 @@
         <v>53</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>4</v>
@@ -2799,7 +2535,7 @@
         <v>53</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>4</v>
@@ -2810,7 +2546,7 @@
         <v>53</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>4</v>
@@ -2821,7 +2557,7 @@
         <v>53</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>4</v>
@@ -2832,7 +2568,7 @@
         <v>53</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>4</v>
@@ -2843,7 +2579,7 @@
         <v>53</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -2854,7 +2590,7 @@
         <v>53</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>4</v>
@@ -2865,38 +2601,38 @@
         <v>53</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
-      <c r="A98" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="99" spans="1:3" ht="21">
+      <c r="A99" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3" ht="21">
       <c r="A100" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>4</v>
@@ -2907,7 +2643,7 @@
         <v>97</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>4</v>
@@ -2918,7 +2654,7 @@
         <v>97</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>4</v>
@@ -2929,7 +2665,7 @@
         <v>97</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>4</v>
@@ -2940,7 +2676,7 @@
         <v>97</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>4</v>
@@ -2951,7 +2687,7 @@
         <v>97</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>4</v>
@@ -2962,7 +2698,7 @@
         <v>97</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>4</v>
@@ -2973,7 +2709,7 @@
         <v>97</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>4</v>
@@ -2984,7 +2720,7 @@
         <v>97</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>4</v>
@@ -2995,7 +2731,7 @@
         <v>97</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>4</v>
@@ -3006,7 +2742,7 @@
         <v>97</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>4</v>
@@ -3017,7 +2753,7 @@
         <v>97</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>4</v>
@@ -3028,7 +2764,7 @@
         <v>97</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>4</v>
@@ -3039,7 +2775,7 @@
         <v>97</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>4</v>
@@ -3050,7 +2786,7 @@
         <v>97</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>4</v>
@@ -3061,7 +2797,7 @@
         <v>97</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>4</v>
@@ -3072,7 +2808,7 @@
         <v>97</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>4</v>
@@ -3083,7 +2819,7 @@
         <v>97</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>4</v>
@@ -3094,7 +2830,7 @@
         <v>97</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>4</v>
@@ -3105,7 +2841,7 @@
         <v>97</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>4</v>
@@ -3116,7 +2852,7 @@
         <v>97</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>4</v>
@@ -3127,7 +2863,7 @@
         <v>97</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>4</v>
@@ -3138,7 +2874,7 @@
         <v>97</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>4</v>
@@ -3149,7 +2885,7 @@
         <v>97</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>4</v>
@@ -3160,7 +2896,7 @@
         <v>97</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>4</v>
@@ -3171,7 +2907,7 @@
         <v>97</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>4</v>
@@ -3182,7 +2918,7 @@
         <v>97</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>4</v>
@@ -3193,7 +2929,7 @@
         <v>97</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>4</v>
@@ -3204,7 +2940,7 @@
         <v>97</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>4</v>
@@ -3215,7 +2951,7 @@
         <v>97</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>4</v>
@@ -3226,7 +2962,7 @@
         <v>97</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>4</v>
@@ -3237,7 +2973,7 @@
         <v>97</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>4</v>
@@ -3248,7 +2984,7 @@
         <v>97</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>4</v>
@@ -3259,7 +2995,7 @@
         <v>97</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>4</v>
@@ -3270,33 +3006,33 @@
         <v>97</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
-      <c r="A136" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="137" spans="1:3" ht="21">
+      <c r="B137" s="7"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3" ht="21">
-      <c r="B138" s="7"/>
-      <c r="C138" s="4"/>
+      <c r="A138" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>4</v>
@@ -3307,7 +3043,7 @@
         <v>134</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>4</v>
@@ -3318,7 +3054,7 @@
         <v>134</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>4</v>
@@ -3329,7 +3065,7 @@
         <v>134</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>4</v>
@@ -3340,7 +3076,7 @@
         <v>134</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>4</v>
@@ -3351,7 +3087,7 @@
         <v>134</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>4</v>
@@ -3362,7 +3098,7 @@
         <v>134</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
@@ -3373,7 +3109,7 @@
         <v>134</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>4</v>
@@ -3384,7 +3120,7 @@
         <v>134</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>4</v>
@@ -3395,7 +3131,7 @@
         <v>134</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>4</v>
@@ -3406,7 +3142,7 @@
         <v>134</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>4</v>
@@ -3417,7 +3153,7 @@
         <v>134</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>4</v>
@@ -3428,7 +3164,7 @@
         <v>134</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>4</v>
@@ -3439,7 +3175,7 @@
         <v>134</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>4</v>
@@ -3450,7 +3186,7 @@
         <v>134</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>4</v>
@@ -3461,7 +3197,7 @@
         <v>134</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>4</v>
@@ -3472,7 +3208,7 @@
         <v>134</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>4</v>
@@ -3483,7 +3219,7 @@
         <v>134</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>4</v>
@@ -3494,7 +3230,7 @@
         <v>134</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>4</v>
@@ -3505,7 +3241,7 @@
         <v>134</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>4</v>
@@ -3516,7 +3252,7 @@
         <v>134</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>4</v>
@@ -3527,7 +3263,7 @@
         <v>134</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>4</v>
@@ -3538,7 +3274,7 @@
         <v>134</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>4</v>
@@ -3549,7 +3285,7 @@
         <v>134</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>4</v>
@@ -3559,8 +3295,8 @@
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>159</v>
+      <c r="B163" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>4</v>
@@ -3571,7 +3307,7 @@
         <v>134</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>4</v>
@@ -3581,8 +3317,8 @@
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>161</v>
+      <c r="B165" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>4</v>
@@ -3593,7 +3329,7 @@
         <v>134</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>4</v>
@@ -3604,7 +3340,7 @@
         <v>134</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>4</v>
@@ -3615,7 +3351,7 @@
         <v>134</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>4</v>
@@ -3626,7 +3362,7 @@
         <v>134</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>4</v>
@@ -3637,7 +3373,7 @@
         <v>134</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>4</v>
@@ -3648,7 +3384,7 @@
         <v>134</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>4</v>
@@ -3659,7 +3395,7 @@
         <v>134</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>4</v>
@@ -3670,22 +3406,15 @@
         <v>134</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21">
-      <c r="A174" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="175" spans="1:3" ht="21">
+      <c r="B175" s="7"/>
+      <c r="C175" s="4"/>
     </row>
     <row r="176" spans="1:3" ht="21">
       <c r="B176" s="7"/>
@@ -3693,10 +3422,10 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>4</v>
@@ -3704,10 +3433,10 @@
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>4</v>
@@ -3715,10 +3444,10 @@
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>4</v>
@@ -3726,10 +3455,10 @@
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>4</v>
@@ -3737,10 +3466,10 @@
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>4</v>
@@ -3748,10 +3477,10 @@
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>4</v>
@@ -3759,10 +3488,10 @@
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>4</v>
@@ -3770,10 +3499,10 @@
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>4</v>
@@ -3781,10 +3510,10 @@
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>4</v>
@@ -3792,10 +3521,10 @@
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>4</v>
@@ -3803,10 +3532,10 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>4</v>
@@ -3814,10 +3543,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>4</v>
@@ -3825,10 +3554,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>4</v>
@@ -3836,10 +3565,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>4</v>
@@ -3847,10 +3576,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>4</v>
@@ -3858,10 +3587,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>4</v>
@@ -3869,10 +3598,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>4</v>
@@ -3880,10 +3609,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>4</v>
@@ -3891,43 +3620,29 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
-      <c r="A196" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B196" s="7"/>
+      <c r="C196" s="4"/>
     </row>
     <row r="197" spans="1:3" ht="21">
-      <c r="A197" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B197" s="7"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>4</v>
@@ -3935,10 +3650,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>4</v>
@@ -3946,10 +3661,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>4</v>
@@ -3957,10 +3672,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>4</v>
@@ -3968,10 +3683,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>4</v>
@@ -3979,10 +3694,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>4</v>
@@ -3990,10 +3705,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>4</v>
@@ -4001,10 +3716,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>4</v>
@@ -4012,10 +3727,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>4</v>
@@ -4023,10 +3738,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>4</v>
@@ -4034,10 +3749,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>4</v>
@@ -4045,10 +3760,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>4</v>
@@ -4056,10 +3771,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>171</v>
+        <v>285</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>4</v>
@@ -4067,31 +3782,43 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>206</v>
+        <v>285</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="21">
-      <c r="A212" s="8"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="4"/>
+      <c r="A212" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="8"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="4"/>
+      <c r="A213" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>4</v>
@@ -4099,10 +3826,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>4</v>
@@ -4110,10 +3837,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>210</v>
+        <v>304</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>4</v>
@@ -4121,10 +3848,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>211</v>
+        <v>305</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>4</v>
@@ -4132,10 +3859,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>4</v>
@@ -4143,10 +3870,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>4</v>
@@ -4154,10 +3881,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>214</v>
+        <v>285</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>4</v>
@@ -4165,10 +3892,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>4</v>
@@ -4176,10 +3903,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>4</v>
@@ -4187,10 +3914,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>4</v>
@@ -4198,10 +3925,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>4</v>
@@ -4209,10 +3936,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>4</v>
@@ -4220,10 +3947,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>4</v>
@@ -4231,10 +3958,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>4</v>
@@ -4242,10 +3969,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>4</v>
@@ -4253,10 +3980,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
@@ -4264,10 +3991,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
@@ -4275,10 +4002,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>225</v>
+        <v>319</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>4</v>
@@ -4286,10 +4013,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>4</v>
@@ -4297,10 +4024,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>4</v>
@@ -4308,10 +4035,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>4</v>
@@ -4319,10 +4046,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>4</v>
@@ -4337,220 +4064,213 @@
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="5" t="s">
-        <v>230</v>
+      <c r="A238" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>231</v>
+        <v>325</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
-      <c r="A239" s="5" t="s">
-        <v>230</v>
+      <c r="A239" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="21">
-      <c r="A240" s="5" t="s">
-        <v>230</v>
+      <c r="A240" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="21">
-      <c r="A241" s="5" t="s">
-        <v>230</v>
+      <c r="A241" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="21">
-      <c r="A242" s="5" t="s">
-        <v>230</v>
+      <c r="A242" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="21">
-      <c r="A243" s="5" t="s">
-        <v>230</v>
+      <c r="A243" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="21">
-      <c r="A244" s="5" t="s">
-        <v>230</v>
+      <c r="A244" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="21">
-      <c r="A245" s="5" t="s">
-        <v>230</v>
+      <c r="A245" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="21">
-      <c r="A246" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>239</v>
+      <c r="A246" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="21">
-      <c r="A247" s="5" t="s">
-        <v>230</v>
+      <c r="A247" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">
-      <c r="A248" s="5" t="s">
-        <v>230</v>
+      <c r="A248" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="21">
-      <c r="A249" s="5" t="s">
-        <v>230</v>
+      <c r="A249" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>242</v>
+        <v>336</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="21">
-      <c r="A250" s="5" t="s">
-        <v>230</v>
+      <c r="A250" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="21">
-      <c r="A251" s="5" t="s">
-        <v>230</v>
+      <c r="A251" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="21">
-      <c r="A252" s="5" t="s">
-        <v>230</v>
+      <c r="A252" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="21">
-      <c r="A253" s="5" t="s">
-        <v>230</v>
+      <c r="A253" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="21">
-      <c r="A254" s="5" t="s">
-        <v>230</v>
+      <c r="A254" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>247</v>
+        <v>341</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="21">
-      <c r="A255" s="5" t="s">
-        <v>230</v>
+      <c r="A255" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="21">
-      <c r="A256" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B256" s="7"/>
+      <c r="C256" s="4"/>
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -4558,10 +4278,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -4569,10 +4289,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -4580,10 +4300,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -4591,10 +4311,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -4602,10 +4322,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -4613,10 +4333,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -4624,10 +4344,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -4635,10 +4355,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -4646,10 +4366,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4657,10 +4377,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -4668,10 +4388,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -4679,10 +4399,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -4690,10 +4410,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -4701,10 +4421,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>4</v>
@@ -4712,29 +4432,43 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="21">
-      <c r="B273" s="7"/>
-      <c r="C273" s="4"/>
+      <c r="A273" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="274" spans="1:3" ht="21">
-      <c r="B274" s="7"/>
-      <c r="C274" s="4"/>
+      <c r="A274" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>4</v>
@@ -4742,10 +4476,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>4</v>
@@ -4753,10 +4487,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -4764,10 +4498,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
@@ -4775,10 +4509,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>4</v>
@@ -4786,10 +4520,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>4</v>
@@ -4797,10 +4531,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>4</v>
@@ -4808,10 +4542,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>4</v>
@@ -4819,10 +4553,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>4</v>
@@ -4830,10 +4564,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>4</v>
@@ -4841,10 +4575,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>4</v>
@@ -4852,10 +4586,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>4</v>
@@ -4863,10 +4597,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -4874,10 +4608,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>4</v>
@@ -4885,10 +4619,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>4</v>
@@ -4896,10 +4630,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
@@ -4907,51 +4641,53 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">
-      <c r="A292" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A292" s="8"/>
+      <c r="B292" s="7"/>
+      <c r="C292" s="4"/>
     </row>
     <row r="293" spans="1:3" ht="21">
-      <c r="A293" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A293" s="8"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="4"/>
     </row>
     <row r="294" spans="1:3" ht="21">
-      <c r="B294" s="7"/>
-      <c r="C294" s="4"/>
+      <c r="A294" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="295" spans="1:3" ht="21">
-      <c r="B295" s="7"/>
-      <c r="C295" s="4"/>
+      <c r="A295" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>4</v>
@@ -4959,10 +4695,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>4</v>
@@ -4970,10 +4706,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
@@ -4981,10 +4717,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
@@ -4992,10 +4728,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>290</v>
+        <v>207</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
@@ -5003,10 +4739,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>4</v>
@@ -5014,10 +4750,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>4</v>
@@ -5025,10 +4761,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>4</v>
@@ -5036,10 +4772,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>294</v>
+        <v>218</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>4</v>
@@ -5047,10 +4783,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>4</v>
@@ -5058,10 +4794,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
@@ -5069,10 +4805,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>4</v>
@@ -5080,10 +4816,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>4</v>
@@ -5091,10 +4827,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B309" s="9" t="s">
-        <v>299</v>
+        <v>207</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>4</v>
@@ -5102,10 +4838,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>4</v>
@@ -5113,10 +4849,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>4</v>
@@ -5124,10 +4860,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
@@ -5135,10 +4871,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>4</v>
@@ -5146,10 +4882,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
@@ -5157,43 +4893,29 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="21">
-      <c r="A316" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B316" s="7"/>
+      <c r="C316" s="4"/>
     </row>
     <row r="317" spans="1:3" ht="21">
-      <c r="A317" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B317" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B317" s="7"/>
+      <c r="C317" s="4"/>
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>4</v>
@@ -5201,10 +4923,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>309</v>
+        <v>232</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>4</v>
@@ -5212,10 +4934,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>4</v>
@@ -5223,10 +4945,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>4</v>
@@ -5234,10 +4956,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>4</v>
@@ -5245,10 +4967,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>4</v>
@@ -5256,10 +4978,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>314</v>
+        <v>237</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>4</v>
@@ -5267,10 +4989,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>4</v>
@@ -5278,10 +5000,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
@@ -5289,10 +5011,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>4</v>
@@ -5300,10 +5022,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>318</v>
+        <v>241</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
@@ -5311,10 +5033,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>4</v>
@@ -5322,10 +5044,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>4</v>
@@ -5333,10 +5055,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>4</v>
@@ -5344,10 +5066,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>4</v>
@@ -5355,1571 +5077,542 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="21">
-      <c r="B334" s="7"/>
-      <c r="C334" s="4"/>
+      <c r="A334" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="335" spans="1:3" ht="21">
-      <c r="B335" s="7"/>
-      <c r="C335" s="4"/>
+      <c r="A335" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="8" t="s">
-        <v>324</v>
+      <c r="A336" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="21">
-      <c r="A337" s="8" t="s">
-        <v>324</v>
+      <c r="A337" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="21">
-      <c r="A338" s="8" t="s">
-        <v>324</v>
+      <c r="A338" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="21">
-      <c r="A339" s="8" t="s">
-        <v>324</v>
+      <c r="A339" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="21">
-      <c r="A340" s="8" t="s">
-        <v>324</v>
+      <c r="A340" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="21">
-      <c r="A341" s="8" t="s">
-        <v>324</v>
+      <c r="A341" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="21">
-      <c r="A342" s="8" t="s">
-        <v>324</v>
+      <c r="A342" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>331</v>
+        <v>255</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="21">
-      <c r="A343" s="8" t="s">
-        <v>324</v>
+      <c r="A343" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="21">
-      <c r="A344" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B344" s="9" t="s">
-        <v>333</v>
+      <c r="A344" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="21">
-      <c r="A345" s="8" t="s">
-        <v>324</v>
+      <c r="A345" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="21">
-      <c r="A346" s="8" t="s">
-        <v>324</v>
+      <c r="A346" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="21">
-      <c r="A347" s="8" t="s">
-        <v>324</v>
+      <c r="A347" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>336</v>
+        <v>260</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="21">
-      <c r="A348" s="8" t="s">
-        <v>324</v>
+      <c r="A348" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="21">
-      <c r="A349" s="8" t="s">
-        <v>324</v>
+      <c r="A349" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="21">
-      <c r="A350" s="8" t="s">
-        <v>324</v>
+      <c r="A350" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="21">
-      <c r="A351" s="8" t="s">
-        <v>324</v>
+      <c r="A351" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>340</v>
+        <v>87</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="21">
-      <c r="A352" s="8" t="s">
-        <v>324</v>
+      <c r="A352" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="21">
-      <c r="A353" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C353" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B353" s="7"/>
+      <c r="C353" s="4"/>
     </row>
     <row r="354" spans="1:3" ht="21">
-      <c r="B354" s="7"/>
-      <c r="C354" s="4"/>
+      <c r="A354" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="355" spans="1:3" ht="21">
-      <c r="B355" s="7"/>
-      <c r="C355" s="4"/>
+      <c r="A355" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="356" spans="1:3" ht="21">
-      <c r="A356" s="8" t="s">
+      <c r="A356" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
-      <c r="A357" s="8" t="s">
+      <c r="A357" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
-      <c r="A358" s="8" t="s">
+      <c r="A358" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
-      <c r="A359" s="8" t="s">
+      <c r="A359" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
-      <c r="A360" s="8" t="s">
+      <c r="A360" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
-      <c r="A361" s="8" t="s">
+      <c r="A361" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
-      <c r="A362" s="8" t="s">
+      <c r="A362" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
-      <c r="A363" s="8" t="s">
+      <c r="A363" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
-      <c r="A364" s="8" t="s">
+      <c r="A364" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">
-      <c r="A365" s="8" t="s">
+      <c r="A365" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
-      <c r="A366" s="8" t="s">
+      <c r="A366" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
-      <c r="A367" s="8" t="s">
+      <c r="A367" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
-      <c r="A368" s="8" t="s">
+      <c r="A368" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
-      <c r="A369" s="8" t="s">
+      <c r="A369" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">
-      <c r="A370" s="8" t="s">
+      <c r="A370" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="21">
-      <c r="A371" s="8" t="s">
+      <c r="A371" s="5" t="s">
         <v>343</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="21">
-      <c r="A372" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B372" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C372" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B372" s="7"/>
+      <c r="C372" s="4"/>
     </row>
     <row r="373" spans="1:3" ht="21">
-      <c r="A373" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B373" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A373" s="8"/>
+      <c r="B373" s="7"/>
+      <c r="C373" s="4"/>
     </row>
     <row r="374" spans="1:3" ht="21">
-      <c r="A374" s="8" t="s">
-        <v>343</v>
+      <c r="A374" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="B374" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="21">
+      <c r="A375" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C374" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="21">
-      <c r="A375" s="8" t="s">
-        <v>343</v>
-      </c>
       <c r="B375" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="21">
-      <c r="A376" s="8" t="s">
-        <v>343</v>
+      <c r="A376" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="21">
-      <c r="A377" s="8" t="s">
-        <v>343</v>
+      <c r="A377" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="21">
-      <c r="A378" s="8" t="s">
-        <v>343</v>
+      <c r="A378" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="21">
-      <c r="A379" s="8" t="s">
-        <v>343</v>
+      <c r="A379" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="21">
-      <c r="A380" s="8" t="s">
-        <v>343</v>
+      <c r="A380" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="21">
-      <c r="A381" s="8" t="s">
-        <v>343</v>
+      <c r="A381" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="21">
-      <c r="A382" s="8" t="s">
-        <v>343</v>
+      <c r="A382" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">
-      <c r="A383" s="8" t="s">
-        <v>343</v>
+      <c r="A383" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" ht="21">
-      <c r="A384" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B384" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C384" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="21">
-      <c r="A385" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B385" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="21">
-      <c r="A386" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B386" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="21">
-      <c r="A387" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B387" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="21">
-      <c r="A388" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B388" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C388" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="21">
-      <c r="A389" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B389" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C389" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" ht="21">
-      <c r="A390" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B390" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C390" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" ht="21">
-      <c r="A391" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B391" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" ht="21">
-      <c r="A392" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B392" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C392" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="21">
-      <c r="A393" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B393" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="21">
-      <c r="A394" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B394" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" ht="21">
-      <c r="A395" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B395" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C395" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="21">
-      <c r="A396" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B396" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="21">
-      <c r="A397" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B397" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="21">
-      <c r="A398" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B398" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" ht="21">
-      <c r="A399" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C399" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="21">
-      <c r="B400" s="7"/>
-      <c r="C400" s="4"/>
-    </row>
-    <row r="401" spans="1:3" ht="21">
-      <c r="B401" s="7"/>
-      <c r="C401" s="4"/>
-    </row>
-    <row r="402" spans="1:3" ht="21">
-      <c r="A402" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" ht="21">
-      <c r="A403" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" ht="21">
-      <c r="A404" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B404" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="21">
-      <c r="A405" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B405" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C405" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" ht="21">
-      <c r="A406" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B406" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C406" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="21">
-      <c r="A407" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="21">
-      <c r="B408" s="7"/>
-      <c r="C408" s="4"/>
-    </row>
-    <row r="409" spans="1:3" ht="21">
-      <c r="B409" s="7"/>
-      <c r="C409" s="4"/>
-    </row>
-    <row r="410" spans="1:3" ht="21">
-      <c r="A410" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="21">
-      <c r="A411" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C411" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" ht="21">
-      <c r="A412" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B412" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C412" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="21">
-      <c r="A413" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B413" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="21">
-      <c r="A414" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C414" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" ht="21">
-      <c r="A415" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B415" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C415" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" ht="21">
-      <c r="A416" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B416" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C416" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" ht="21">
-      <c r="A417" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B417" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C417" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" ht="21">
-      <c r="A418" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B418" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="21">
-      <c r="A419" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B419" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C419" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" ht="21">
-      <c r="A420" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B420" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C420" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" ht="21">
-      <c r="A421" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B421" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" ht="21">
-      <c r="A422" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B422" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C422" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" ht="21">
-      <c r="A423" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B423" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C423" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" ht="21">
-      <c r="A424" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B424" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C424" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" ht="21">
-      <c r="A425" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B425" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C425" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" ht="21">
-      <c r="A426" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B426" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C426" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" ht="21">
-      <c r="A427" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B427" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C427" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" ht="21">
-      <c r="A428" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B428" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C428" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" ht="21">
-      <c r="A429" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B429" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C429" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" ht="21">
-      <c r="A430" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B430" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C430" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" ht="21">
-      <c r="A431" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B431" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" ht="21">
-      <c r="A432" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B432" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C432" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="21">
-      <c r="A433" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B433" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C433" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" ht="21">
-      <c r="A434" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B434" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="C434" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" ht="21">
-      <c r="A435" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B435" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="C435" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" ht="21">
-      <c r="A436" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B436" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C436" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" ht="21">
-      <c r="A437" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B437" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C437" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" ht="21">
-      <c r="A438" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B438" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C438" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" ht="21">
-      <c r="A439" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B439" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C439" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" ht="21">
-      <c r="A440" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B440" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C440" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" ht="21">
-      <c r="A441" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B441" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C441" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" ht="21">
-      <c r="A442" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B442" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C442" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" ht="21">
-      <c r="A443" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B443" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C443" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" ht="21">
-      <c r="A444" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B444" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="C444" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" ht="21">
-      <c r="A445" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B445" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C445" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" ht="21">
-      <c r="A446" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B446" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C446" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" ht="21">
-      <c r="A447" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B447" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C447" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" ht="21">
-      <c r="A448" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B448" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C448" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" ht="21">
-      <c r="A449" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B449" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C449" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" ht="21">
-      <c r="A450" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B450" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C450" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" ht="21">
-      <c r="A451" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B451" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C451" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" ht="21">
-      <c r="A452" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B452" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C452" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" ht="21">
-      <c r="A453" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B453" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C453" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="21">
-      <c r="A454" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B454" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C454" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" ht="21">
-      <c r="A455" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B455" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C455" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" ht="21">
-      <c r="A456" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B456" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C456" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" ht="21">
-      <c r="A457" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B457" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C457" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" ht="21">
-      <c r="A458" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B458" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C458" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" ht="21">
-      <c r="A459" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B459" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C459" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" ht="21">
-      <c r="A460" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B460" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C460" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="21">
-      <c r="A461" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B461" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C461" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" ht="21">
-      <c r="A462" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B462" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C462" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" ht="21">
-      <c r="A463" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B463" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C463" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" ht="21">
-      <c r="A464" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B464" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C464" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" ht="21">
-      <c r="A465" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B465" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C465" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" ht="21">
-      <c r="A466" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B466" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C466" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="21">
-      <c r="A467" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B467" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C467" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="21">
-      <c r="A468" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B468" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C468" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="21">
-      <c r="A469" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B469" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C469" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" ht="21">
-      <c r="B470" s="7"/>
-      <c r="C470" s="4"/>
-    </row>
-    <row r="471" spans="1:3" ht="21">
-      <c r="A471" s="8"/>
-      <c r="B471" s="7"/>
-      <c r="C471" s="4"/>
-    </row>
-    <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C472" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" ht="21">
-      <c r="A473" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C473" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" ht="21">
-      <c r="A474" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B474" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C474" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="21">
-      <c r="A475" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B475" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C475" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="21">
-      <c r="A476" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B476" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" ht="21">
-      <c r="A477" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C477" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" ht="21">
-      <c r="A478" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B478" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" ht="21">
-      <c r="A479" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C479" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" ht="21">
-      <c r="A480" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B480" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C480" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="21">
-      <c r="A481" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="C481" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6927,161 +5620,161 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
     <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B12" r:id="rId6"/>
-    <hyperlink ref="B13" r:id="rId7"/>
-    <hyperlink ref="B14" r:id="rId8"/>
-    <hyperlink ref="B15" r:id="rId9"/>
-    <hyperlink ref="B16" r:id="rId10"/>
-    <hyperlink ref="B17" r:id="rId11"/>
-    <hyperlink ref="B18" r:id="rId12"/>
-    <hyperlink ref="B19" r:id="rId13"/>
-    <hyperlink ref="B20" r:id="rId14"/>
-    <hyperlink ref="B21" r:id="rId15"/>
-    <hyperlink ref="B22" r:id="rId16"/>
-    <hyperlink ref="B23" r:id="rId17"/>
-    <hyperlink ref="B24" r:id="rId18"/>
-    <hyperlink ref="B25" r:id="rId19"/>
-    <hyperlink ref="B26" r:id="rId20"/>
-    <hyperlink ref="B27" r:id="rId21"/>
-    <hyperlink ref="B28" r:id="rId22"/>
-    <hyperlink ref="B29" r:id="rId23"/>
-    <hyperlink ref="B30" r:id="rId24"/>
-    <hyperlink ref="B31" r:id="rId25"/>
-    <hyperlink ref="B32" r:id="rId26"/>
-    <hyperlink ref="B33" r:id="rId27"/>
-    <hyperlink ref="B34" r:id="rId28"/>
-    <hyperlink ref="B35" r:id="rId29"/>
-    <hyperlink ref="B36" r:id="rId30"/>
-    <hyperlink ref="B37" r:id="rId31"/>
-    <hyperlink ref="B38" r:id="rId32"/>
-    <hyperlink ref="B39" r:id="rId33"/>
-    <hyperlink ref="B40" r:id="rId34"/>
-    <hyperlink ref="B41" r:id="rId35"/>
-    <hyperlink ref="B44" r:id="rId36"/>
-    <hyperlink ref="B45" r:id="rId37"/>
-    <hyperlink ref="B46" r:id="rId38"/>
-    <hyperlink ref="B47" r:id="rId39"/>
-    <hyperlink ref="B48" r:id="rId40"/>
-    <hyperlink ref="B49" r:id="rId41"/>
-    <hyperlink ref="B50" r:id="rId42"/>
-    <hyperlink ref="B51" r:id="rId43"/>
-    <hyperlink ref="B52" r:id="rId44"/>
-    <hyperlink ref="B53" r:id="rId45"/>
-    <hyperlink ref="B56" r:id="rId46"/>
-    <hyperlink ref="B57" r:id="rId47"/>
-    <hyperlink ref="B58" r:id="rId48"/>
-    <hyperlink ref="B60" r:id="rId49"/>
-    <hyperlink ref="B61" r:id="rId50"/>
-    <hyperlink ref="B62" r:id="rId51"/>
-    <hyperlink ref="B63" r:id="rId52"/>
-    <hyperlink ref="B64" r:id="rId53"/>
-    <hyperlink ref="B65" r:id="rId54"/>
-    <hyperlink ref="B66" r:id="rId55"/>
-    <hyperlink ref="B67" r:id="rId56"/>
-    <hyperlink ref="B68" r:id="rId57"/>
-    <hyperlink ref="B69" r:id="rId58"/>
-    <hyperlink ref="B70" r:id="rId59"/>
-    <hyperlink ref="B71" r:id="rId60"/>
-    <hyperlink ref="B72" r:id="rId61"/>
-    <hyperlink ref="B73" r:id="rId62"/>
-    <hyperlink ref="B74" r:id="rId63"/>
-    <hyperlink ref="B75" r:id="rId64"/>
-    <hyperlink ref="B76" r:id="rId65"/>
-    <hyperlink ref="B77" r:id="rId66"/>
-    <hyperlink ref="B78" r:id="rId67"/>
-    <hyperlink ref="B79" r:id="rId68"/>
-    <hyperlink ref="B80" r:id="rId69"/>
-    <hyperlink ref="B81" r:id="rId70"/>
-    <hyperlink ref="B82" r:id="rId71"/>
-    <hyperlink ref="B83" r:id="rId72"/>
-    <hyperlink ref="B84" r:id="rId73"/>
-    <hyperlink ref="B85" r:id="rId74"/>
-    <hyperlink ref="B86" r:id="rId75"/>
-    <hyperlink ref="B87" r:id="rId76"/>
-    <hyperlink ref="B88" r:id="rId77"/>
-    <hyperlink ref="B89" r:id="rId78"/>
-    <hyperlink ref="B90" r:id="rId79"/>
-    <hyperlink ref="B91" r:id="rId80"/>
-    <hyperlink ref="B92" r:id="rId81"/>
-    <hyperlink ref="B93" r:id="rId82"/>
-    <hyperlink ref="B94" r:id="rId83"/>
-    <hyperlink ref="B95" r:id="rId84"/>
-    <hyperlink ref="B96" r:id="rId85"/>
-    <hyperlink ref="B97" r:id="rId86"/>
-    <hyperlink ref="B98" r:id="rId87"/>
-    <hyperlink ref="B101" r:id="rId88"/>
-    <hyperlink ref="B102" r:id="rId89"/>
-    <hyperlink ref="B103" r:id="rId90"/>
-    <hyperlink ref="B104" r:id="rId91"/>
-    <hyperlink ref="B106" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B107" r:id="rId93"/>
-    <hyperlink ref="B108" r:id="rId94"/>
-    <hyperlink ref="B109" r:id="rId95"/>
-    <hyperlink ref="B110" r:id="rId96"/>
-    <hyperlink ref="B111" r:id="rId97"/>
-    <hyperlink ref="B113" r:id="rId98"/>
-    <hyperlink ref="B114" r:id="rId99"/>
-    <hyperlink ref="B115" r:id="rId100"/>
-    <hyperlink ref="B116" r:id="rId101"/>
-    <hyperlink ref="B117" r:id="rId102"/>
-    <hyperlink ref="B118" r:id="rId103"/>
-    <hyperlink ref="B119" r:id="rId104"/>
-    <hyperlink ref="B120" r:id="rId105"/>
-    <hyperlink ref="B121" r:id="rId106"/>
-    <hyperlink ref="B122" r:id="rId107"/>
-    <hyperlink ref="B123" r:id="rId108"/>
-    <hyperlink ref="B124" r:id="rId109"/>
-    <hyperlink ref="B125" r:id="rId110"/>
-    <hyperlink ref="B126" r:id="rId111"/>
-    <hyperlink ref="B127" r:id="rId112"/>
-    <hyperlink ref="B128" r:id="rId113"/>
-    <hyperlink ref="B129" r:id="rId114"/>
-    <hyperlink ref="B130" r:id="rId115"/>
-    <hyperlink ref="B131" r:id="rId116"/>
-    <hyperlink ref="B132" r:id="rId117"/>
-    <hyperlink ref="B133" r:id="rId118"/>
-    <hyperlink ref="B134" r:id="rId119"/>
-    <hyperlink ref="B135" r:id="rId120"/>
-    <hyperlink ref="B136" r:id="rId121"/>
-    <hyperlink ref="B105" r:id="rId122"/>
-    <hyperlink ref="B112" r:id="rId123"/>
-    <hyperlink ref="B139" r:id="rId124"/>
-    <hyperlink ref="B140" r:id="rId125"/>
-    <hyperlink ref="B141" r:id="rId126"/>
-    <hyperlink ref="B142" r:id="rId127"/>
-    <hyperlink ref="B143" r:id="rId128"/>
-    <hyperlink ref="B144" r:id="rId129"/>
-    <hyperlink ref="B145" r:id="rId130"/>
-    <hyperlink ref="B146" r:id="rId131"/>
-    <hyperlink ref="B147" r:id="rId132"/>
-    <hyperlink ref="B148" r:id="rId133"/>
-    <hyperlink ref="B149" r:id="rId134"/>
-    <hyperlink ref="B150" r:id="rId135"/>
-    <hyperlink ref="B151" r:id="rId136"/>
-    <hyperlink ref="B152" r:id="rId137"/>
-    <hyperlink ref="B153" r:id="rId138"/>
-    <hyperlink ref="B154" r:id="rId139"/>
-    <hyperlink ref="B155" r:id="rId140"/>
-    <hyperlink ref="B156" r:id="rId141"/>
-    <hyperlink ref="B157" r:id="rId142"/>
-    <hyperlink ref="B158" r:id="rId143"/>
-    <hyperlink ref="B159" r:id="rId144"/>
-    <hyperlink ref="B160" r:id="rId145"/>
-    <hyperlink ref="B161" r:id="rId146"/>
-    <hyperlink ref="B162" r:id="rId147"/>
-    <hyperlink ref="B163" r:id="rId148"/>
-    <hyperlink ref="B166" r:id="rId149"/>
-    <hyperlink ref="B167" r:id="rId150"/>
-    <hyperlink ref="B168" r:id="rId151"/>
-    <hyperlink ref="B169" r:id="rId152"/>
-    <hyperlink ref="B170" r:id="rId153"/>
-    <hyperlink ref="B171" r:id="rId154"/>
-    <hyperlink ref="B172" r:id="rId155"/>
-    <hyperlink ref="B173" r:id="rId156"/>
-    <hyperlink ref="B174" r:id="rId157"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+    <hyperlink ref="B12" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B22" r:id="rId17"/>
+    <hyperlink ref="B23" r:id="rId18"/>
+    <hyperlink ref="B24" r:id="rId19"/>
+    <hyperlink ref="B25" r:id="rId20"/>
+    <hyperlink ref="B26" r:id="rId21"/>
+    <hyperlink ref="B27" r:id="rId22"/>
+    <hyperlink ref="B28" r:id="rId23"/>
+    <hyperlink ref="B29" r:id="rId24"/>
+    <hyperlink ref="B30" r:id="rId25"/>
+    <hyperlink ref="B31" r:id="rId26"/>
+    <hyperlink ref="B32" r:id="rId27"/>
+    <hyperlink ref="B33" r:id="rId28"/>
+    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="B35" r:id="rId30"/>
+    <hyperlink ref="B36" r:id="rId31"/>
+    <hyperlink ref="B37" r:id="rId32"/>
+    <hyperlink ref="B38" r:id="rId33"/>
+    <hyperlink ref="B39" r:id="rId34"/>
+    <hyperlink ref="B40" r:id="rId35"/>
+    <hyperlink ref="B43" r:id="rId36"/>
+    <hyperlink ref="B44" r:id="rId37"/>
+    <hyperlink ref="B45" r:id="rId38"/>
+    <hyperlink ref="B46" r:id="rId39"/>
+    <hyperlink ref="B47" r:id="rId40"/>
+    <hyperlink ref="B48" r:id="rId41"/>
+    <hyperlink ref="B49" r:id="rId42"/>
+    <hyperlink ref="B50" r:id="rId43"/>
+    <hyperlink ref="B51" r:id="rId44"/>
+    <hyperlink ref="B52" r:id="rId45"/>
+    <hyperlink ref="B55" r:id="rId46"/>
+    <hyperlink ref="B56" r:id="rId47"/>
+    <hyperlink ref="B57" r:id="rId48"/>
+    <hyperlink ref="B59" r:id="rId49"/>
+    <hyperlink ref="B60" r:id="rId50"/>
+    <hyperlink ref="B61" r:id="rId51"/>
+    <hyperlink ref="B62" r:id="rId52"/>
+    <hyperlink ref="B63" r:id="rId53"/>
+    <hyperlink ref="B64" r:id="rId54"/>
+    <hyperlink ref="B65" r:id="rId55"/>
+    <hyperlink ref="B66" r:id="rId56"/>
+    <hyperlink ref="B67" r:id="rId57"/>
+    <hyperlink ref="B68" r:id="rId58"/>
+    <hyperlink ref="B69" r:id="rId59"/>
+    <hyperlink ref="B70" r:id="rId60"/>
+    <hyperlink ref="B71" r:id="rId61"/>
+    <hyperlink ref="B72" r:id="rId62"/>
+    <hyperlink ref="B73" r:id="rId63"/>
+    <hyperlink ref="B74" r:id="rId64"/>
+    <hyperlink ref="B75" r:id="rId65"/>
+    <hyperlink ref="B76" r:id="rId66"/>
+    <hyperlink ref="B77" r:id="rId67"/>
+    <hyperlink ref="B78" r:id="rId68"/>
+    <hyperlink ref="B79" r:id="rId69"/>
+    <hyperlink ref="B80" r:id="rId70"/>
+    <hyperlink ref="B81" r:id="rId71"/>
+    <hyperlink ref="B82" r:id="rId72"/>
+    <hyperlink ref="B83" r:id="rId73"/>
+    <hyperlink ref="B84" r:id="rId74"/>
+    <hyperlink ref="B85" r:id="rId75"/>
+    <hyperlink ref="B86" r:id="rId76"/>
+    <hyperlink ref="B87" r:id="rId77"/>
+    <hyperlink ref="B88" r:id="rId78"/>
+    <hyperlink ref="B89" r:id="rId79"/>
+    <hyperlink ref="B90" r:id="rId80"/>
+    <hyperlink ref="B91" r:id="rId81"/>
+    <hyperlink ref="B92" r:id="rId82"/>
+    <hyperlink ref="B93" r:id="rId83"/>
+    <hyperlink ref="B94" r:id="rId84"/>
+    <hyperlink ref="B95" r:id="rId85"/>
+    <hyperlink ref="B96" r:id="rId86"/>
+    <hyperlink ref="B97" r:id="rId87"/>
+    <hyperlink ref="B100" r:id="rId88"/>
+    <hyperlink ref="B101" r:id="rId89"/>
+    <hyperlink ref="B102" r:id="rId90"/>
+    <hyperlink ref="B103" r:id="rId91"/>
+    <hyperlink ref="B105" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B106" r:id="rId93"/>
+    <hyperlink ref="B107" r:id="rId94"/>
+    <hyperlink ref="B108" r:id="rId95"/>
+    <hyperlink ref="B109" r:id="rId96"/>
+    <hyperlink ref="B110" r:id="rId97"/>
+    <hyperlink ref="B112" r:id="rId98"/>
+    <hyperlink ref="B113" r:id="rId99"/>
+    <hyperlink ref="B114" r:id="rId100"/>
+    <hyperlink ref="B115" r:id="rId101"/>
+    <hyperlink ref="B116" r:id="rId102"/>
+    <hyperlink ref="B117" r:id="rId103"/>
+    <hyperlink ref="B118" r:id="rId104"/>
+    <hyperlink ref="B119" r:id="rId105"/>
+    <hyperlink ref="B120" r:id="rId106"/>
+    <hyperlink ref="B121" r:id="rId107"/>
+    <hyperlink ref="B122" r:id="rId108"/>
+    <hyperlink ref="B123" r:id="rId109"/>
+    <hyperlink ref="B124" r:id="rId110"/>
+    <hyperlink ref="B125" r:id="rId111"/>
+    <hyperlink ref="B126" r:id="rId112"/>
+    <hyperlink ref="B127" r:id="rId113"/>
+    <hyperlink ref="B128" r:id="rId114"/>
+    <hyperlink ref="B129" r:id="rId115"/>
+    <hyperlink ref="B130" r:id="rId116"/>
+    <hyperlink ref="B131" r:id="rId117"/>
+    <hyperlink ref="B132" r:id="rId118"/>
+    <hyperlink ref="B133" r:id="rId119"/>
+    <hyperlink ref="B134" r:id="rId120"/>
+    <hyperlink ref="B135" r:id="rId121"/>
+    <hyperlink ref="B104" r:id="rId122"/>
+    <hyperlink ref="B111" r:id="rId123"/>
+    <hyperlink ref="B138" r:id="rId124"/>
+    <hyperlink ref="B139" r:id="rId125"/>
+    <hyperlink ref="B140" r:id="rId126"/>
+    <hyperlink ref="B141" r:id="rId127"/>
+    <hyperlink ref="B142" r:id="rId128"/>
+    <hyperlink ref="B143" r:id="rId129"/>
+    <hyperlink ref="B144" r:id="rId130"/>
+    <hyperlink ref="B145" r:id="rId131"/>
+    <hyperlink ref="B146" r:id="rId132"/>
+    <hyperlink ref="B147" r:id="rId133"/>
+    <hyperlink ref="B148" r:id="rId134"/>
+    <hyperlink ref="B149" r:id="rId135"/>
+    <hyperlink ref="B150" r:id="rId136"/>
+    <hyperlink ref="B151" r:id="rId137"/>
+    <hyperlink ref="B152" r:id="rId138"/>
+    <hyperlink ref="B153" r:id="rId139"/>
+    <hyperlink ref="B154" r:id="rId140"/>
+    <hyperlink ref="B155" r:id="rId141"/>
+    <hyperlink ref="B156" r:id="rId142"/>
+    <hyperlink ref="B157" r:id="rId143"/>
+    <hyperlink ref="B158" r:id="rId144"/>
+    <hyperlink ref="B159" r:id="rId145"/>
+    <hyperlink ref="B160" r:id="rId146"/>
+    <hyperlink ref="B161" r:id="rId147"/>
+    <hyperlink ref="B162" r:id="rId148"/>
+    <hyperlink ref="B165" r:id="rId149"/>
+    <hyperlink ref="B166" r:id="rId150"/>
+    <hyperlink ref="B167" r:id="rId151"/>
+    <hyperlink ref="B168" r:id="rId152"/>
+    <hyperlink ref="B169" r:id="rId153"/>
+    <hyperlink ref="B170" r:id="rId154"/>
+    <hyperlink ref="B171" r:id="rId155"/>
+    <hyperlink ref="B172" r:id="rId156"/>
+    <hyperlink ref="B173" r:id="rId157"/>
     <hyperlink ref="B177" r:id="rId158"/>
     <hyperlink ref="B178" r:id="rId159"/>
     <hyperlink ref="B179" r:id="rId160"/>
@@ -7101,22 +5794,22 @@
     <hyperlink ref="B193" r:id="rId174"/>
     <hyperlink ref="B194" r:id="rId175"/>
     <hyperlink ref="B195" r:id="rId176"/>
-    <hyperlink ref="B196" r:id="rId177"/>
-    <hyperlink ref="B197" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId179"/>
-    <hyperlink ref="B199" r:id="rId180"/>
-    <hyperlink ref="B200" r:id="rId181"/>
-    <hyperlink ref="B201" r:id="rId182"/>
-    <hyperlink ref="B202" r:id="rId183"/>
-    <hyperlink ref="B203" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId185"/>
-    <hyperlink ref="B205" r:id="rId186"/>
-    <hyperlink ref="B206" r:id="rId187"/>
-    <hyperlink ref="B207" r:id="rId188"/>
-    <hyperlink ref="B208" r:id="rId189"/>
-    <hyperlink ref="B209" r:id="rId190"/>
-    <hyperlink ref="B210" r:id="rId191"/>
-    <hyperlink ref="B211" r:id="rId192"/>
+    <hyperlink ref="B198" r:id="rId177"/>
+    <hyperlink ref="B199" r:id="rId178"/>
+    <hyperlink ref="B200" r:id="rId179"/>
+    <hyperlink ref="B201" r:id="rId180"/>
+    <hyperlink ref="B202" r:id="rId181"/>
+    <hyperlink ref="B203" r:id="rId182"/>
+    <hyperlink ref="B204" r:id="rId183"/>
+    <hyperlink ref="B205" r:id="rId184"/>
+    <hyperlink ref="B206" r:id="rId185"/>
+    <hyperlink ref="B207" r:id="rId186"/>
+    <hyperlink ref="B208" r:id="rId187" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B209" r:id="rId188"/>
+    <hyperlink ref="B210" r:id="rId189"/>
+    <hyperlink ref="B211" r:id="rId190"/>
+    <hyperlink ref="B212" r:id="rId191"/>
+    <hyperlink ref="B213" r:id="rId192"/>
     <hyperlink ref="B214" r:id="rId193"/>
     <hyperlink ref="B215" r:id="rId194"/>
     <hyperlink ref="B216" r:id="rId195"/>
@@ -7157,220 +5850,128 @@
     <hyperlink ref="B253" r:id="rId230"/>
     <hyperlink ref="B254" r:id="rId231"/>
     <hyperlink ref="B255" r:id="rId232"/>
-    <hyperlink ref="B256" r:id="rId233"/>
-    <hyperlink ref="B257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId235"/>
-    <hyperlink ref="B259" r:id="rId236"/>
-    <hyperlink ref="B260" r:id="rId237"/>
-    <hyperlink ref="B261" r:id="rId238"/>
-    <hyperlink ref="B262" r:id="rId239"/>
-    <hyperlink ref="B263" r:id="rId240"/>
-    <hyperlink ref="B264" r:id="rId241"/>
-    <hyperlink ref="B265" r:id="rId242"/>
-    <hyperlink ref="B266" r:id="rId243"/>
-    <hyperlink ref="B267" r:id="rId244"/>
-    <hyperlink ref="B268" r:id="rId245"/>
-    <hyperlink ref="B269" r:id="rId246"/>
-    <hyperlink ref="B270" r:id="rId247"/>
-    <hyperlink ref="B271" r:id="rId248"/>
-    <hyperlink ref="B272" r:id="rId249"/>
-    <hyperlink ref="B275" r:id="rId250"/>
-    <hyperlink ref="B276" r:id="rId251"/>
-    <hyperlink ref="B277" r:id="rId252"/>
-    <hyperlink ref="B278" r:id="rId253"/>
-    <hyperlink ref="B279" r:id="rId254"/>
-    <hyperlink ref="B280" r:id="rId255"/>
-    <hyperlink ref="B281" r:id="rId256"/>
-    <hyperlink ref="B282" r:id="rId257"/>
-    <hyperlink ref="B283" r:id="rId258"/>
-    <hyperlink ref="B284" r:id="rId259"/>
-    <hyperlink ref="B285" r:id="rId260"/>
-    <hyperlink ref="B286" r:id="rId261"/>
-    <hyperlink ref="B287" r:id="rId262"/>
-    <hyperlink ref="B288" r:id="rId263"/>
-    <hyperlink ref="B289" r:id="rId264"/>
-    <hyperlink ref="B290" r:id="rId265"/>
-    <hyperlink ref="B291" r:id="rId266"/>
-    <hyperlink ref="B292" r:id="rId267"/>
-    <hyperlink ref="B293" r:id="rId268"/>
-    <hyperlink ref="B296" r:id="rId269"/>
-    <hyperlink ref="B297" r:id="rId270"/>
-    <hyperlink ref="B298" r:id="rId271"/>
-    <hyperlink ref="B299" r:id="rId272"/>
-    <hyperlink ref="B300" r:id="rId273"/>
-    <hyperlink ref="B301" r:id="rId274"/>
-    <hyperlink ref="B302" r:id="rId275"/>
-    <hyperlink ref="B303" r:id="rId276"/>
-    <hyperlink ref="B304" r:id="rId277"/>
-    <hyperlink ref="B305" r:id="rId278"/>
-    <hyperlink ref="B306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId280"/>
-    <hyperlink ref="B308" r:id="rId281"/>
-    <hyperlink ref="B309" r:id="rId282"/>
-    <hyperlink ref="B310" r:id="rId283"/>
-    <hyperlink ref="B311" r:id="rId284"/>
-    <hyperlink ref="B312" r:id="rId285"/>
-    <hyperlink ref="B313" r:id="rId286"/>
-    <hyperlink ref="B314" r:id="rId287"/>
-    <hyperlink ref="B315" r:id="rId288"/>
-    <hyperlink ref="B316" r:id="rId289"/>
-    <hyperlink ref="B317" r:id="rId290"/>
-    <hyperlink ref="B318" r:id="rId291"/>
-    <hyperlink ref="B319" r:id="rId292"/>
-    <hyperlink ref="B320" r:id="rId293"/>
-    <hyperlink ref="B321" r:id="rId294"/>
-    <hyperlink ref="B322" r:id="rId295"/>
-    <hyperlink ref="B323" r:id="rId296"/>
-    <hyperlink ref="B324" r:id="rId297"/>
-    <hyperlink ref="B325" r:id="rId298"/>
-    <hyperlink ref="B326" r:id="rId299"/>
-    <hyperlink ref="B327" r:id="rId300"/>
-    <hyperlink ref="B328" r:id="rId301"/>
-    <hyperlink ref="B329" r:id="rId302"/>
-    <hyperlink ref="B330" r:id="rId303"/>
-    <hyperlink ref="B331" r:id="rId304"/>
-    <hyperlink ref="B332" r:id="rId305"/>
-    <hyperlink ref="B333" r:id="rId306"/>
-    <hyperlink ref="B336" r:id="rId307"/>
-    <hyperlink ref="B337" r:id="rId308"/>
-    <hyperlink ref="B338" r:id="rId309"/>
-    <hyperlink ref="B339" r:id="rId310"/>
-    <hyperlink ref="B340" r:id="rId311"/>
-    <hyperlink ref="B341" r:id="rId312"/>
-    <hyperlink ref="B342" r:id="rId313"/>
-    <hyperlink ref="B343" r:id="rId314"/>
-    <hyperlink ref="B344" r:id="rId315"/>
-    <hyperlink ref="B345" r:id="rId316"/>
-    <hyperlink ref="B346" r:id="rId317"/>
-    <hyperlink ref="B347" r:id="rId318"/>
-    <hyperlink ref="B348" r:id="rId319"/>
-    <hyperlink ref="B349" r:id="rId320"/>
-    <hyperlink ref="B350" r:id="rId321"/>
-    <hyperlink ref="B351" r:id="rId322"/>
-    <hyperlink ref="B352" r:id="rId323"/>
-    <hyperlink ref="B353" r:id="rId324"/>
-    <hyperlink ref="B357" r:id="rId325"/>
-    <hyperlink ref="B358" r:id="rId326"/>
-    <hyperlink ref="B359" r:id="rId327"/>
-    <hyperlink ref="B360" r:id="rId328"/>
-    <hyperlink ref="B361" r:id="rId329"/>
-    <hyperlink ref="B362" r:id="rId330"/>
-    <hyperlink ref="B363" r:id="rId331"/>
-    <hyperlink ref="B364" r:id="rId332"/>
-    <hyperlink ref="B365" r:id="rId333"/>
-    <hyperlink ref="B366" r:id="rId334"/>
-    <hyperlink ref="B367" r:id="rId335"/>
-    <hyperlink ref="B368" r:id="rId336"/>
-    <hyperlink ref="B369" r:id="rId337"/>
-    <hyperlink ref="B370" r:id="rId338"/>
-    <hyperlink ref="B371" r:id="rId339"/>
-    <hyperlink ref="B372" r:id="rId340"/>
-    <hyperlink ref="B373" r:id="rId341"/>
-    <hyperlink ref="B374" r:id="rId342"/>
-    <hyperlink ref="B375" r:id="rId343"/>
-    <hyperlink ref="B376" r:id="rId344"/>
-    <hyperlink ref="B377" r:id="rId345"/>
-    <hyperlink ref="B378" r:id="rId346"/>
-    <hyperlink ref="B379" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId348"/>
-    <hyperlink ref="B381" r:id="rId349"/>
-    <hyperlink ref="B382" r:id="rId350"/>
-    <hyperlink ref="B383" r:id="rId351"/>
-    <hyperlink ref="B384" r:id="rId352"/>
-    <hyperlink ref="B385" r:id="rId353"/>
-    <hyperlink ref="B386" r:id="rId354"/>
-    <hyperlink ref="B387" r:id="rId355"/>
-    <hyperlink ref="B388" r:id="rId356"/>
-    <hyperlink ref="B389" r:id="rId357"/>
-    <hyperlink ref="B390" r:id="rId358"/>
-    <hyperlink ref="B391" r:id="rId359"/>
-    <hyperlink ref="B392" r:id="rId360"/>
-    <hyperlink ref="B393" r:id="rId361"/>
-    <hyperlink ref="B394" r:id="rId362"/>
-    <hyperlink ref="B396" r:id="rId363"/>
-    <hyperlink ref="B395" r:id="rId364"/>
-    <hyperlink ref="B397" r:id="rId365"/>
-    <hyperlink ref="B398" r:id="rId366"/>
-    <hyperlink ref="B399" r:id="rId367"/>
-    <hyperlink ref="B402" r:id="rId368"/>
-    <hyperlink ref="B403" r:id="rId369"/>
-    <hyperlink ref="B404" r:id="rId370"/>
-    <hyperlink ref="B405" r:id="rId371"/>
-    <hyperlink ref="B406" r:id="rId372"/>
-    <hyperlink ref="B407" r:id="rId373"/>
-    <hyperlink ref="B410" r:id="rId374"/>
-    <hyperlink ref="B411" r:id="rId375"/>
-    <hyperlink ref="B412" r:id="rId376"/>
-    <hyperlink ref="B413" r:id="rId377"/>
-    <hyperlink ref="B414" r:id="rId378"/>
-    <hyperlink ref="B415" r:id="rId379"/>
-    <hyperlink ref="B416" r:id="rId380"/>
-    <hyperlink ref="B417" r:id="rId381"/>
-    <hyperlink ref="B418" r:id="rId382"/>
-    <hyperlink ref="B419" r:id="rId383"/>
-    <hyperlink ref="B420" r:id="rId384"/>
-    <hyperlink ref="B421" r:id="rId385"/>
-    <hyperlink ref="B422" r:id="rId386"/>
-    <hyperlink ref="B423" r:id="rId387"/>
-    <hyperlink ref="B424" r:id="rId388"/>
-    <hyperlink ref="B425" r:id="rId389"/>
-    <hyperlink ref="B426" r:id="rId390"/>
-    <hyperlink ref="B427" r:id="rId391"/>
-    <hyperlink ref="B428" r:id="rId392"/>
-    <hyperlink ref="B429" r:id="rId393"/>
-    <hyperlink ref="B430" r:id="rId394"/>
-    <hyperlink ref="B431" r:id="rId395"/>
-    <hyperlink ref="B432" r:id="rId396"/>
-    <hyperlink ref="B433" r:id="rId397"/>
-    <hyperlink ref="B434" r:id="rId398"/>
-    <hyperlink ref="B435" r:id="rId399"/>
-    <hyperlink ref="B436" r:id="rId400"/>
-    <hyperlink ref="B437" r:id="rId401"/>
-    <hyperlink ref="B438" r:id="rId402"/>
-    <hyperlink ref="B439" r:id="rId403"/>
-    <hyperlink ref="B440" r:id="rId404"/>
-    <hyperlink ref="B441" r:id="rId405"/>
-    <hyperlink ref="B442" r:id="rId406"/>
-    <hyperlink ref="B443" r:id="rId407"/>
-    <hyperlink ref="B444" r:id="rId408"/>
-    <hyperlink ref="B445" r:id="rId409"/>
-    <hyperlink ref="B446" r:id="rId410"/>
-    <hyperlink ref="B447" r:id="rId411"/>
-    <hyperlink ref="B448" r:id="rId412"/>
-    <hyperlink ref="B449" r:id="rId413"/>
-    <hyperlink ref="B451" r:id="rId414"/>
-    <hyperlink ref="B450" r:id="rId415"/>
-    <hyperlink ref="B452" r:id="rId416"/>
-    <hyperlink ref="B453" r:id="rId417"/>
-    <hyperlink ref="B454" r:id="rId418"/>
-    <hyperlink ref="B455" r:id="rId419"/>
-    <hyperlink ref="B456" r:id="rId420"/>
-    <hyperlink ref="B457" r:id="rId421"/>
-    <hyperlink ref="B458" r:id="rId422"/>
-    <hyperlink ref="B459" r:id="rId423"/>
-    <hyperlink ref="B460" r:id="rId424"/>
-    <hyperlink ref="B461" r:id="rId425"/>
-    <hyperlink ref="B462" r:id="rId426"/>
-    <hyperlink ref="B469" r:id="rId427"/>
-    <hyperlink ref="B468" r:id="rId428"/>
-    <hyperlink ref="B467" r:id="rId429"/>
-    <hyperlink ref="B466" r:id="rId430"/>
-    <hyperlink ref="B465" r:id="rId431"/>
-    <hyperlink ref="B464" r:id="rId432"/>
-    <hyperlink ref="B463" r:id="rId433"/>
-    <hyperlink ref="B472" r:id="rId434"/>
-    <hyperlink ref="B473" r:id="rId435"/>
-    <hyperlink ref="B474" r:id="rId436"/>
-    <hyperlink ref="B475" r:id="rId437"/>
-    <hyperlink ref="B476" r:id="rId438"/>
-    <hyperlink ref="B477" r:id="rId439"/>
-    <hyperlink ref="B478" r:id="rId440"/>
-    <hyperlink ref="B481" r:id="rId441"/>
-    <hyperlink ref="B479" r:id="rId442"/>
-    <hyperlink ref="B480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId444"/>
-    <hyperlink ref="B2" r:id="rId445"/>
-    <hyperlink ref="B100" r:id="rId446"/>
+    <hyperlink ref="B354" r:id="rId233"/>
+    <hyperlink ref="B355" r:id="rId234"/>
+    <hyperlink ref="B356" r:id="rId235"/>
+    <hyperlink ref="B357" r:id="rId236"/>
+    <hyperlink ref="B358" r:id="rId237"/>
+    <hyperlink ref="B359" r:id="rId238"/>
+    <hyperlink ref="B360" r:id="rId239"/>
+    <hyperlink ref="B361" r:id="rId240"/>
+    <hyperlink ref="B362" r:id="rId241"/>
+    <hyperlink ref="B363" r:id="rId242"/>
+    <hyperlink ref="B364" r:id="rId243"/>
+    <hyperlink ref="B371" r:id="rId244"/>
+    <hyperlink ref="B370" r:id="rId245"/>
+    <hyperlink ref="B369" r:id="rId246"/>
+    <hyperlink ref="B368" r:id="rId247"/>
+    <hyperlink ref="B367" r:id="rId248"/>
+    <hyperlink ref="B366" r:id="rId249"/>
+    <hyperlink ref="B365" r:id="rId250"/>
+    <hyperlink ref="B374" r:id="rId251"/>
+    <hyperlink ref="B375" r:id="rId252"/>
+    <hyperlink ref="B376" r:id="rId253"/>
+    <hyperlink ref="B377" r:id="rId254"/>
+    <hyperlink ref="B378" r:id="rId255"/>
+    <hyperlink ref="B379" r:id="rId256"/>
+    <hyperlink ref="B380" r:id="rId257"/>
+    <hyperlink ref="B383" r:id="rId258"/>
+    <hyperlink ref="B381" r:id="rId259"/>
+    <hyperlink ref="B382" r:id="rId260" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B2" r:id="rId261"/>
+    <hyperlink ref="B99" r:id="rId262"/>
+    <hyperlink ref="B257" r:id="rId263"/>
+    <hyperlink ref="B258" r:id="rId264"/>
+    <hyperlink ref="B259" r:id="rId265"/>
+    <hyperlink ref="B260" r:id="rId266"/>
+    <hyperlink ref="B261" r:id="rId267"/>
+    <hyperlink ref="B262" r:id="rId268"/>
+    <hyperlink ref="B263" r:id="rId269"/>
+    <hyperlink ref="B264" r:id="rId270"/>
+    <hyperlink ref="B265" r:id="rId271"/>
+    <hyperlink ref="B266" r:id="rId272"/>
+    <hyperlink ref="B267" r:id="rId273"/>
+    <hyperlink ref="B268" r:id="rId274"/>
+    <hyperlink ref="B269" r:id="rId275"/>
+    <hyperlink ref="B270" r:id="rId276"/>
+    <hyperlink ref="B271" r:id="rId277"/>
+    <hyperlink ref="B272" r:id="rId278"/>
+    <hyperlink ref="B273" r:id="rId279"/>
+    <hyperlink ref="B274" r:id="rId280"/>
+    <hyperlink ref="B275" r:id="rId281"/>
+    <hyperlink ref="B276" r:id="rId282"/>
+    <hyperlink ref="B277" r:id="rId283" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B278" r:id="rId284"/>
+    <hyperlink ref="B279" r:id="rId285"/>
+    <hyperlink ref="B280" r:id="rId286"/>
+    <hyperlink ref="B281" r:id="rId287"/>
+    <hyperlink ref="B282" r:id="rId288"/>
+    <hyperlink ref="B283" r:id="rId289" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B284" r:id="rId290"/>
+    <hyperlink ref="B285" r:id="rId291"/>
+    <hyperlink ref="B286" r:id="rId292"/>
+    <hyperlink ref="B287" r:id="rId293"/>
+    <hyperlink ref="B288" r:id="rId294"/>
+    <hyperlink ref="B289" r:id="rId295"/>
+    <hyperlink ref="B290" r:id="rId296"/>
+    <hyperlink ref="B291" r:id="rId297"/>
+    <hyperlink ref="B294" r:id="rId298"/>
+    <hyperlink ref="B295" r:id="rId299"/>
+    <hyperlink ref="B296" r:id="rId300"/>
+    <hyperlink ref="B297" r:id="rId301"/>
+    <hyperlink ref="B298" r:id="rId302"/>
+    <hyperlink ref="B299" r:id="rId303"/>
+    <hyperlink ref="B300" r:id="rId304"/>
+    <hyperlink ref="B301" r:id="rId305"/>
+    <hyperlink ref="B302" r:id="rId306"/>
+    <hyperlink ref="B303" r:id="rId307"/>
+    <hyperlink ref="B304" r:id="rId308"/>
+    <hyperlink ref="B305" r:id="rId309"/>
+    <hyperlink ref="B306" r:id="rId310"/>
+    <hyperlink ref="B307" r:id="rId311"/>
+    <hyperlink ref="B308" r:id="rId312"/>
+    <hyperlink ref="B309" r:id="rId313"/>
+    <hyperlink ref="B310" r:id="rId314"/>
+    <hyperlink ref="B311" r:id="rId315"/>
+    <hyperlink ref="B312" r:id="rId316"/>
+    <hyperlink ref="B313" r:id="rId317"/>
+    <hyperlink ref="B314" r:id="rId318"/>
+    <hyperlink ref="B315" r:id="rId319"/>
+    <hyperlink ref="B318" r:id="rId320"/>
+    <hyperlink ref="B319" r:id="rId321"/>
+    <hyperlink ref="B320" r:id="rId322"/>
+    <hyperlink ref="B321" r:id="rId323"/>
+    <hyperlink ref="B322" r:id="rId324"/>
+    <hyperlink ref="B323" r:id="rId325"/>
+    <hyperlink ref="B324" r:id="rId326"/>
+    <hyperlink ref="B325" r:id="rId327"/>
+    <hyperlink ref="B326" r:id="rId328"/>
+    <hyperlink ref="B327" r:id="rId329"/>
+    <hyperlink ref="B328" r:id="rId330"/>
+    <hyperlink ref="B329" r:id="rId331"/>
+    <hyperlink ref="B330" r:id="rId332"/>
+    <hyperlink ref="B331" r:id="rId333"/>
+    <hyperlink ref="B332" r:id="rId334"/>
+    <hyperlink ref="B333" r:id="rId335"/>
+    <hyperlink ref="B334" r:id="rId336"/>
+    <hyperlink ref="B335" r:id="rId337"/>
+    <hyperlink ref="B336" r:id="rId338"/>
+    <hyperlink ref="B337" r:id="rId339" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B338" r:id="rId340"/>
+    <hyperlink ref="B339" r:id="rId341"/>
+    <hyperlink ref="B340" r:id="rId342"/>
+    <hyperlink ref="B341" r:id="rId343"/>
+    <hyperlink ref="B342" r:id="rId344"/>
+    <hyperlink ref="B343" r:id="rId345"/>
+    <hyperlink ref="B344" r:id="rId346"/>
+    <hyperlink ref="B345" r:id="rId347"/>
+    <hyperlink ref="B346" r:id="rId348"/>
+    <hyperlink ref="B347" r:id="rId349"/>
+    <hyperlink ref="B348" r:id="rId350"/>
+    <hyperlink ref="B349" r:id="rId351"/>
+    <hyperlink ref="B350" r:id="rId352"/>
+    <hyperlink ref="B351" r:id="rId353"/>
+    <hyperlink ref="B352" r:id="rId354"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="377">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1153,6 +1153,9 @@
   </si>
   <si>
     <t>8*</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X2TufR5vY98</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1582,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C383"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1595,17 +1598,17 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1616,12 +1619,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="C5" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1708,8 +1711,11 @@
       <c r="C13" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
+      <c r="D13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
